--- a/GMfiles/NRHA/MultiSupport_Excitation.xlsx
+++ b/GMfiles/NRHA/MultiSupport_Excitation.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic\PhD Work Space\Site Response\EzBridge Workspace\Multi-Support Excitation\GMfiles\NRHA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Volkan\Desktop\Workspace\GMfiles\NRHA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7088D706-3D25-4CA2-8938-BC99ED6CE24D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03313FA-D0CA-4C32-8D1A-0260C7FD47C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="2475" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bent1" sheetId="1" r:id="rId1"/>
-    <sheet name="Abutment1" sheetId="2" r:id="rId2"/>
-    <sheet name="Abutment2" sheetId="3" r:id="rId3"/>
+    <sheet name="Bent2" sheetId="4" r:id="rId2"/>
+    <sheet name="Bent3" sheetId="5" r:id="rId3"/>
+    <sheet name="Bent4" sheetId="6" r:id="rId4"/>
+    <sheet name="Abutment1" sheetId="2" r:id="rId5"/>
+    <sheet name="Abutment2" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="8">
   <si>
     <t>Layer ID</t>
   </si>
@@ -39,6 +42,9 @@
   </si>
   <si>
     <t>V</t>
+  </si>
+  <si>
+    <t>DT</t>
   </si>
   <si>
     <t>RSN1158_KOCAELI_DZC180.txt</t>
@@ -375,15 +381,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -396,311 +402,368 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <f t="shared" ref="A4:A21" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <f t="shared" ref="A4:A23" si="0">A3+1</f>
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>5.0000000000000001E-3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -708,35 +771,389 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{976E0D0C-AB15-4C93-A4B1-A5044386379A}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D52E03C9-E499-4E09-9C16-C2166B9A5CC2}">
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <f t="shared" ref="A4:A21" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
@@ -745,35 +1162,1562 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC50D29E-9694-4A3F-A7D1-14D9160AAE7C}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E17FF2C-B0E0-47D7-B1C8-7047CBA0DDC7}">
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <f t="shared" ref="A4:A21" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{158EBC83-4B5B-44D3-9E11-8F1DED6A041F}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <f t="shared" ref="A4:A21" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{976E0D0C-AB15-4C93-A4B1-A5044386379A}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="A3:E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <f t="shared" ref="A4:A21" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC50D29E-9694-4A3F-A7D1-14D9160AAE7C}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <f t="shared" ref="A4:A21" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
